--- a/Code/Results/Cases/Case_5_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_253/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.469531999534865</v>
+        <v>1.792708522336056</v>
       </c>
       <c r="C2">
-        <v>0.856862608113147</v>
+        <v>0.2544466942002543</v>
       </c>
       <c r="D2">
-        <v>0.05921455287488442</v>
+        <v>0.08884395901083764</v>
       </c>
       <c r="E2">
-        <v>0.01894460787119101</v>
+        <v>0.04573766239177823</v>
       </c>
       <c r="F2">
-        <v>2.559544315360426</v>
+        <v>2.122403679451622</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.492495281532541</v>
+        <v>1.546942915480017</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3746375614585702</v>
+        <v>0.2749935328723581</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997003021331068</v>
+        <v>1.678671900351333</v>
       </c>
       <c r="C3">
-        <v>0.7378693854952019</v>
+        <v>0.2219482845705159</v>
       </c>
       <c r="D3">
-        <v>0.05916861879600432</v>
+        <v>0.08912226837344761</v>
       </c>
       <c r="E3">
-        <v>0.01899402507800874</v>
+        <v>0.04589353640667726</v>
       </c>
       <c r="F3">
-        <v>2.295894143583055</v>
+        <v>2.068054950713929</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.373436549069837</v>
+        <v>1.525602533049664</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3279797302977272</v>
+        <v>0.2647931738955265</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.711708925152436</v>
+        <v>1.609751299265668</v>
       </c>
       <c r="C4">
-        <v>0.6659794701712656</v>
+        <v>0.2020316225884358</v>
       </c>
       <c r="D4">
-        <v>0.05927575189562617</v>
+        <v>0.08932779141339253</v>
       </c>
       <c r="E4">
-        <v>0.01903972176020163</v>
+        <v>0.04599787337157046</v>
       </c>
       <c r="F4">
-        <v>2.140050725260906</v>
+        <v>2.036019618066291</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.303898620541133</v>
+        <v>1.513369054356119</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3000142100372472</v>
+        <v>0.2587060589918622</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.596490360577093</v>
+        <v>1.581940629925157</v>
       </c>
       <c r="C5">
-        <v>0.6369283244087853</v>
+        <v>0.1939241500997468</v>
       </c>
       <c r="D5">
-        <v>0.05935051189543472</v>
+        <v>0.08942018263914875</v>
       </c>
       <c r="E5">
-        <v>0.0190620283210019</v>
+        <v>0.04604256283601282</v>
       </c>
       <c r="F5">
-        <v>2.077894024049456</v>
+        <v>2.023297626148391</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.27636675983851</v>
+        <v>1.508600719692922</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2887687323570987</v>
+        <v>0.2562695208956995</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.577416454376078</v>
+        <v>1.577339268476578</v>
       </c>
       <c r="C6">
-        <v>0.6321177994407208</v>
+        <v>0.1925784175072636</v>
       </c>
       <c r="D6">
-        <v>0.05936472411871208</v>
+        <v>0.08943604381180137</v>
       </c>
       <c r="E6">
-        <v>0.01906595004863476</v>
+        <v>0.04605011466809605</v>
       </c>
       <c r="F6">
-        <v>2.067649919524996</v>
+        <v>2.021205153028461</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.271841257755739</v>
+        <v>1.50782199065921</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.286909955569854</v>
+        <v>0.2558675870444063</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.710151052493359</v>
+        <v>1.609375122740403</v>
       </c>
       <c r="C7">
-        <v>0.6655867488152296</v>
+        <v>0.2019222479428322</v>
       </c>
       <c r="D7">
-        <v>0.05927663786132698</v>
+        <v>0.08932900254993115</v>
       </c>
       <c r="E7">
-        <v>0.01904000789440818</v>
+        <v>0.0459984672758309</v>
       </c>
       <c r="F7">
-        <v>2.139207199621254</v>
+        <v>2.035846701905967</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.303524169333329</v>
+        <v>1.51330387102584</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2998619656880379</v>
+        <v>0.2586730210912407</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.305487741569834</v>
+        <v>1.753159983072294</v>
       </c>
       <c r="C8">
-        <v>0.8155585546566897</v>
+        <v>0.2432330273924208</v>
       </c>
       <c r="D8">
-        <v>0.05916876680396399</v>
+        <v>0.08893268737445581</v>
       </c>
       <c r="E8">
-        <v>0.01895834818373787</v>
+        <v>0.04578961742616716</v>
       </c>
       <c r="F8">
-        <v>2.467278312012951</v>
+        <v>2.103385306817557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.450646525067924</v>
+        <v>1.539403194276687</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3583950261020448</v>
+        <v>0.2714397861478943</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.520337994887313</v>
+        <v>2.04390787506776</v>
       </c>
       <c r="C9">
-        <v>1.121524105269373</v>
+        <v>0.3245766972721071</v>
       </c>
       <c r="D9">
-        <v>0.06018086571311443</v>
+        <v>0.08843361450761478</v>
       </c>
       <c r="E9">
-        <v>0.01892909165951906</v>
+        <v>0.0454484832348605</v>
       </c>
       <c r="F9">
-        <v>3.167048289530328</v>
+        <v>2.246566849252986</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.772043096007366</v>
+        <v>1.597567314312627</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4796580067862948</v>
+        <v>0.2978837439293898</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.456182122225755</v>
+        <v>2.263003415741764</v>
       </c>
       <c r="C10">
-        <v>1.357682783625989</v>
+        <v>0.3845990521124918</v>
       </c>
       <c r="D10">
-        <v>0.06191206886553147</v>
+        <v>0.08824100734488383</v>
       </c>
       <c r="E10">
-        <v>0.01900205107022934</v>
+        <v>0.04523949753718881</v>
       </c>
       <c r="F10">
-        <v>3.729127274996216</v>
+        <v>2.358523981160857</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.035558720555969</v>
+        <v>1.644679326439928</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5743968347595683</v>
+        <v>0.3181903824846017</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.895159631236879</v>
+        <v>2.363896293203538</v>
       </c>
       <c r="C11">
-        <v>1.468692525766926</v>
+        <v>0.411973697710323</v>
       </c>
       <c r="D11">
-        <v>0.06297966295718282</v>
+        <v>0.08819216580262434</v>
       </c>
       <c r="E11">
-        <v>0.01905975389118808</v>
+        <v>0.04515345536416948</v>
       </c>
       <c r="F11">
-        <v>3.998849873080019</v>
+        <v>2.410971984475225</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.163334077215268</v>
+        <v>1.667089367148805</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6191722621469467</v>
+        <v>0.3276235987047187</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.063675766860001</v>
+        <v>2.402279996848847</v>
       </c>
       <c r="C12">
-        <v>1.511354323289765</v>
+        <v>0.4223507785983429</v>
       </c>
       <c r="D12">
-        <v>0.06343085443538143</v>
+        <v>0.08817932775077963</v>
       </c>
       <c r="E12">
-        <v>0.0190855369074896</v>
+        <v>0.0451221706047864</v>
       </c>
       <c r="F12">
-        <v>4.103362173544156</v>
+        <v>2.431054634634023</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.213048919369612</v>
+        <v>1.675718259728015</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6364133928376816</v>
+        <v>0.3312241668824072</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.027274496544521</v>
+        <v>2.394005447673919</v>
       </c>
       <c r="C13">
-        <v>1.502136603564225</v>
+        <v>0.4201153909158393</v>
       </c>
       <c r="D13">
-        <v>0.06333147723660204</v>
+        <v>0.08818183974981508</v>
       </c>
       <c r="E13">
-        <v>0.01907980190888114</v>
+        <v>0.04512885063549099</v>
       </c>
       <c r="F13">
-        <v>4.080741687941298</v>
+        <v>2.426719560200922</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.202279420306354</v>
+        <v>1.673853495084188</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6326867212498257</v>
+        <v>0.3304474518009783</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.908975377176262</v>
+        <v>2.367050571730317</v>
       </c>
       <c r="C14">
-        <v>1.472189119761026</v>
+        <v>0.4128272033377698</v>
       </c>
       <c r="D14">
-        <v>0.06301580024462083</v>
+        <v>0.08819099576307821</v>
       </c>
       <c r="E14">
-        <v>0.01906179367309857</v>
+        <v>0.04515085554580534</v>
       </c>
       <c r="F14">
-        <v>4.007398332633414</v>
+        <v>2.412619732660147</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.167396294514617</v>
+        <v>1.667796400064091</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6205846966625046</v>
+        <v>0.3279192485103408</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.83682357671546</v>
+        <v>2.350563129600289</v>
       </c>
       <c r="C15">
-        <v>1.453930366400812</v>
+        <v>0.4083644212853983</v>
       </c>
       <c r="D15">
-        <v>0.0628287659028004</v>
+        <v>0.0881973432373897</v>
       </c>
       <c r="E15">
-        <v>0.01905128853024873</v>
+        <v>0.04516450315515197</v>
       </c>
       <c r="F15">
-        <v>3.962794159705254</v>
+        <v>2.404012159129366</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.146208711172434</v>
+        <v>1.664104896915021</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6132104911753657</v>
+        <v>0.3263743598546256</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.427791694582879</v>
+        <v>2.256434616480419</v>
       </c>
       <c r="C16">
-        <v>1.350509077063577</v>
+        <v>0.3828115352195596</v>
       </c>
       <c r="D16">
-        <v>0.06184847699181972</v>
+        <v>0.08824498645797973</v>
       </c>
       <c r="E16">
-        <v>0.01899880652545161</v>
+        <v>0.04524530219111078</v>
       </c>
       <c r="F16">
-        <v>3.711811821523526</v>
+        <v>2.35512722140902</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.027383098980124</v>
+        <v>1.643234637527456</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5715080601572708</v>
+        <v>0.3175778601507204</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.180510543172204</v>
+        <v>2.19900472838242</v>
       </c>
       <c r="C17">
-        <v>1.288053223337897</v>
+        <v>0.3671542086020736</v>
       </c>
       <c r="D17">
-        <v>0.06132321314155575</v>
+        <v>0.08828420313628271</v>
       </c>
       <c r="E17">
-        <v>0.01897315693552759</v>
+        <v>0.04529718133626748</v>
       </c>
       <c r="F17">
-        <v>3.561672461074551</v>
+        <v>2.325529151467606</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.956639096488971</v>
+        <v>1.630683444075203</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5463842537753578</v>
+        <v>0.3122317960713161</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.039502951199495</v>
+        <v>2.166087800250295</v>
       </c>
       <c r="C18">
-        <v>1.252459690540604</v>
+        <v>0.3581550844531876</v>
       </c>
       <c r="D18">
-        <v>0.0610469976965291</v>
+        <v>0.08831040445684124</v>
       </c>
       <c r="E18">
-        <v>0.01896068310150678</v>
+        <v>0.0453278704854867</v>
       </c>
       <c r="F18">
-        <v>3.47661249497861</v>
+        <v>2.308647812362238</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.916679504963085</v>
+        <v>1.623556315742576</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5320886494404533</v>
+        <v>0.3091752771527467</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.991959492839214</v>
+        <v>2.154962437060135</v>
       </c>
       <c r="C19">
-        <v>1.240461841309752</v>
+        <v>0.355109237383715</v>
       </c>
       <c r="D19">
-        <v>0.06095774023050637</v>
+        <v>0.08831989933112538</v>
       </c>
       <c r="E19">
-        <v>0.01895683984237984</v>
+        <v>0.04533840724496141</v>
       </c>
       <c r="F19">
-        <v>3.448025298289764</v>
+        <v>2.30295648409907</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.903269935634754</v>
+        <v>1.621158931153388</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5272737737268329</v>
+        <v>0.308143543330047</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.206705018997297</v>
+        <v>2.205106301524779</v>
       </c>
       <c r="C20">
-        <v>1.294666920944337</v>
+        <v>0.3688202734474544</v>
       </c>
       <c r="D20">
-        <v>0.06137640302836189</v>
+        <v>0.0882796506320247</v>
       </c>
       <c r="E20">
-        <v>0.01897564877231872</v>
+        <v>0.04529157078200896</v>
       </c>
       <c r="F20">
-        <v>3.577518490663294</v>
+        <v>2.328665124218873</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.964093011132491</v>
+        <v>1.632010005528187</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5490423902607944</v>
+        <v>0.3127989877993116</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.943657365320632</v>
+        <v>2.374963034898826</v>
       </c>
       <c r="C21">
-        <v>1.480967496445658</v>
+        <v>0.41496761845832</v>
       </c>
       <c r="D21">
-        <v>0.063107190158739</v>
+        <v>0.08818815223504117</v>
       </c>
       <c r="E21">
-        <v>0.01906697279813319</v>
+        <v>0.04514435695853969</v>
       </c>
       <c r="F21">
-        <v>4.028873490726653</v>
+        <v>2.416755148649258</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.177604551142409</v>
+        <v>1.669571627063178</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.624131214149628</v>
+        <v>0.3286610696633829</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.438838462167155</v>
+        <v>2.487011137445734</v>
       </c>
       <c r="C22">
-        <v>1.606432631853181</v>
+        <v>0.4451914768026768</v>
       </c>
       <c r="D22">
-        <v>0.06451580391659917</v>
+        <v>0.08816136531720531</v>
       </c>
       <c r="E22">
-        <v>0.01914982365128459</v>
+        <v>0.04505570713376894</v>
       </c>
       <c r="F22">
-        <v>4.337908009488814</v>
+        <v>2.475621097480911</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.325006792480522</v>
+        <v>1.694952996079621</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6748969849383712</v>
+        <v>0.3391936116696002</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.173170448705775</v>
+        <v>2.42711353955076</v>
       </c>
       <c r="C23">
-        <v>1.539089014313618</v>
+        <v>0.4290543171631498</v>
       </c>
       <c r="D23">
-        <v>0.06373610053960022</v>
+        <v>0.08817261433283363</v>
       </c>
       <c r="E23">
-        <v>0.01910333034737199</v>
+        <v>0.04510232933776681</v>
       </c>
       <c r="F23">
-        <v>4.171551650262529</v>
+        <v>2.444083688409336</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.245544068121646</v>
+        <v>1.681329631784152</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6476310745817386</v>
+        <v>0.3335569337935453</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.194858918472619</v>
+        <v>2.202347468076084</v>
       </c>
       <c r="C24">
-        <v>1.291675900861435</v>
+        <v>0.3680670378622608</v>
       </c>
       <c r="D24">
-        <v>0.06135227611290617</v>
+        <v>0.0882816974406424</v>
       </c>
       <c r="E24">
-        <v>0.01897451516432636</v>
+        <v>0.0452941046251345</v>
       </c>
       <c r="F24">
-        <v>3.570350611130181</v>
+        <v>2.327246930746355</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.960720892532677</v>
+        <v>1.631409990902043</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5478401877542893</v>
+        <v>0.312542507475186</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.185244167622727</v>
+        <v>1.964299393444946</v>
       </c>
       <c r="C25">
-        <v>1.037089416471019</v>
+        <v>0.3025296680355325</v>
       </c>
       <c r="D25">
-        <v>0.05975323675773581</v>
+        <v>0.08853838897886135</v>
       </c>
       <c r="E25">
-        <v>0.01892161188684316</v>
+        <v>0.04553345119753471</v>
       </c>
       <c r="F25">
-        <v>2.97040932958501</v>
+        <v>2.206660695328992</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.680876654215311</v>
+        <v>1.581072248608024</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.445997671042619</v>
+        <v>0.2905771658949305</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_253/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.792708522336056</v>
+        <v>3.469531999534865</v>
       </c>
       <c r="C2">
-        <v>0.2544466942002543</v>
+        <v>0.8568626081133459</v>
       </c>
       <c r="D2">
-        <v>0.08884395901083764</v>
+        <v>0.05921455287475652</v>
       </c>
       <c r="E2">
-        <v>0.04573766239177823</v>
+        <v>0.01894460787121632</v>
       </c>
       <c r="F2">
-        <v>2.122403679451622</v>
+        <v>2.559544315360398</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.546942915480017</v>
+        <v>1.49249528153257</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2749935328723581</v>
+        <v>0.3746375614587123</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.678671900351333</v>
+        <v>2.997003021330954</v>
       </c>
       <c r="C3">
-        <v>0.2219482845705159</v>
+        <v>0.7378693854954292</v>
       </c>
       <c r="D3">
-        <v>0.08912226837344761</v>
+        <v>0.05916861879588708</v>
       </c>
       <c r="E3">
-        <v>0.04589353640667726</v>
+        <v>0.01899402507800119</v>
       </c>
       <c r="F3">
-        <v>2.068054950713929</v>
+        <v>2.29589414358307</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.525602533049664</v>
+        <v>1.373436549069837</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2647931738955265</v>
+        <v>0.3279797302976988</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.609751299265668</v>
+        <v>2.711708925152209</v>
       </c>
       <c r="C4">
-        <v>0.2020316225884358</v>
+        <v>0.6659794701712372</v>
       </c>
       <c r="D4">
-        <v>0.08932779141339253</v>
+        <v>0.05927575189563328</v>
       </c>
       <c r="E4">
-        <v>0.04599787337157046</v>
+        <v>0.01903972176024338</v>
       </c>
       <c r="F4">
-        <v>2.036019618066291</v>
+        <v>2.140050725260949</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.513369054356119</v>
+        <v>1.303898620541162</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2587060589918622</v>
+        <v>0.3000142100372187</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.581940629925157</v>
+        <v>2.596490360576979</v>
       </c>
       <c r="C5">
-        <v>0.1939241500997468</v>
+        <v>0.6369283244087853</v>
       </c>
       <c r="D5">
-        <v>0.08942018263914875</v>
+        <v>0.05935051189563723</v>
       </c>
       <c r="E5">
-        <v>0.04604256283601282</v>
+        <v>0.01906202832099257</v>
       </c>
       <c r="F5">
-        <v>2.023297626148391</v>
+        <v>2.077894024049485</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.508600719692922</v>
+        <v>1.27636675983851</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2562695208956995</v>
+        <v>0.2887687323571271</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.577339268476578</v>
+        <v>2.577416454376191</v>
       </c>
       <c r="C6">
-        <v>0.1925784175072636</v>
+        <v>0.6321177994408913</v>
       </c>
       <c r="D6">
-        <v>0.08943604381180137</v>
+        <v>0.0593647241188151</v>
       </c>
       <c r="E6">
-        <v>0.04605011466809605</v>
+        <v>0.01906595004864631</v>
       </c>
       <c r="F6">
-        <v>2.021205153028461</v>
+        <v>2.067649919524996</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.50782199065921</v>
+        <v>1.271841257755753</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2558675870444063</v>
+        <v>0.2869099555698398</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.609375122740403</v>
+        <v>2.710151052493529</v>
       </c>
       <c r="C7">
-        <v>0.2019222479428322</v>
+        <v>0.6655867488153717</v>
       </c>
       <c r="D7">
-        <v>0.08932900254993115</v>
+        <v>0.05927663786121684</v>
       </c>
       <c r="E7">
-        <v>0.0459984672758309</v>
+        <v>0.01904000789444771</v>
       </c>
       <c r="F7">
-        <v>2.035846701905967</v>
+        <v>2.139207199621254</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.51330387102584</v>
+        <v>1.303524169333315</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2586730210912407</v>
+        <v>0.2998619656879953</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.753159983072294</v>
+        <v>3.305487741569891</v>
       </c>
       <c r="C8">
-        <v>0.2432330273924208</v>
+        <v>0.815558554657116</v>
       </c>
       <c r="D8">
-        <v>0.08893268737445581</v>
+        <v>0.05916876680372951</v>
       </c>
       <c r="E8">
-        <v>0.04578961742616716</v>
+        <v>0.01895834818376763</v>
       </c>
       <c r="F8">
-        <v>2.103385306817557</v>
+        <v>2.467278312012922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.539403194276687</v>
+        <v>1.450646525067938</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2714397861478943</v>
+        <v>0.3583950261021158</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.04390787506776</v>
+        <v>4.520337994887541</v>
       </c>
       <c r="C9">
-        <v>0.3245766972721071</v>
+        <v>1.121524105269373</v>
       </c>
       <c r="D9">
-        <v>0.08843361450761478</v>
+        <v>0.06018086571310022</v>
       </c>
       <c r="E9">
-        <v>0.0454484832348605</v>
+        <v>0.01892909165947909</v>
       </c>
       <c r="F9">
-        <v>2.246566849252986</v>
+        <v>3.167048289530356</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.597567314312627</v>
+        <v>1.77204309600738</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2978837439293898</v>
+        <v>0.479658006786309</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.263003415741764</v>
+        <v>5.456182122225584</v>
       </c>
       <c r="C10">
-        <v>0.3845990521124918</v>
+        <v>1.357682783626103</v>
       </c>
       <c r="D10">
-        <v>0.08824100734488383</v>
+        <v>0.06191206886550304</v>
       </c>
       <c r="E10">
-        <v>0.04523949753718881</v>
+        <v>0.01900205107021691</v>
       </c>
       <c r="F10">
-        <v>2.358523981160857</v>
+        <v>3.729127274996216</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.644679326439928</v>
+        <v>2.035558720555983</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3181903824846017</v>
+        <v>0.5743968347595825</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.363896293203538</v>
+        <v>5.895159631236879</v>
       </c>
       <c r="C11">
-        <v>0.411973697710323</v>
+        <v>1.468692525767096</v>
       </c>
       <c r="D11">
-        <v>0.08819216580262434</v>
+        <v>0.06297966295718282</v>
       </c>
       <c r="E11">
-        <v>0.04515345536416948</v>
+        <v>0.0190597538911863</v>
       </c>
       <c r="F11">
-        <v>2.410971984475225</v>
+        <v>3.998849873080019</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.667089367148805</v>
+        <v>2.163334077215296</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3276235987047187</v>
+        <v>0.6191722621469182</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.402279996848847</v>
+        <v>6.063675766860001</v>
       </c>
       <c r="C12">
-        <v>0.4223507785983429</v>
+        <v>1.511354323289765</v>
       </c>
       <c r="D12">
-        <v>0.08817932775077963</v>
+        <v>0.06343085443536012</v>
       </c>
       <c r="E12">
-        <v>0.0451221706047864</v>
+        <v>0.01908553690751624</v>
       </c>
       <c r="F12">
-        <v>2.431054634634023</v>
+        <v>4.103362173544213</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.675718259728015</v>
+        <v>2.213048919369612</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3312241668824072</v>
+        <v>0.6364133928376532</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.394005447673919</v>
+        <v>6.027274496544635</v>
       </c>
       <c r="C13">
-        <v>0.4201153909158393</v>
+        <v>1.502136603564168</v>
       </c>
       <c r="D13">
-        <v>0.08818183974981508</v>
+        <v>0.0633314772364173</v>
       </c>
       <c r="E13">
-        <v>0.04512885063549099</v>
+        <v>0.01907980190890424</v>
       </c>
       <c r="F13">
-        <v>2.426719560200922</v>
+        <v>4.080741687941384</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.673853495084188</v>
+        <v>2.202279420306411</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3304474518009783</v>
+        <v>0.6326867212498541</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.367050571730317</v>
+        <v>5.908975377176205</v>
       </c>
       <c r="C14">
-        <v>0.4128272033377698</v>
+        <v>1.472189119760742</v>
       </c>
       <c r="D14">
-        <v>0.08819099576307821</v>
+        <v>0.06301580024480558</v>
       </c>
       <c r="E14">
-        <v>0.04515085554580534</v>
+        <v>0.01906179367308436</v>
       </c>
       <c r="F14">
-        <v>2.412619732660147</v>
+        <v>4.007398332633471</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.667796400064091</v>
+        <v>2.167396294514631</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3279192485103408</v>
+        <v>0.6205846966623483</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.350563129600289</v>
+        <v>5.83682357671546</v>
       </c>
       <c r="C15">
-        <v>0.4083644212853983</v>
+        <v>1.453930366400812</v>
       </c>
       <c r="D15">
-        <v>0.0881973432373897</v>
+        <v>0.06282876590279329</v>
       </c>
       <c r="E15">
-        <v>0.04516450315515197</v>
+        <v>0.01905128853030291</v>
       </c>
       <c r="F15">
-        <v>2.404012159129366</v>
+        <v>3.962794159705254</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.664104896915021</v>
+        <v>2.146208711172434</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3263743598546256</v>
+        <v>0.6132104911753231</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.256434616480419</v>
+        <v>5.427791694582766</v>
       </c>
       <c r="C16">
-        <v>0.3828115352195596</v>
+        <v>1.350509077062782</v>
       </c>
       <c r="D16">
-        <v>0.08824498645797973</v>
+        <v>0.06184847699210394</v>
       </c>
       <c r="E16">
-        <v>0.04524530219111078</v>
+        <v>0.01899880652546315</v>
       </c>
       <c r="F16">
-        <v>2.35512722140902</v>
+        <v>3.71181182152344</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.643234637527456</v>
+        <v>2.027383098980124</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3175778601507204</v>
+        <v>0.5715080601572993</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.19900472838242</v>
+        <v>5.180510543172375</v>
       </c>
       <c r="C17">
-        <v>0.3671542086020736</v>
+        <v>1.28805322333784</v>
       </c>
       <c r="D17">
-        <v>0.08828420313628271</v>
+        <v>0.06132321314144207</v>
       </c>
       <c r="E17">
-        <v>0.04529718133626748</v>
+        <v>0.01897315693556134</v>
       </c>
       <c r="F17">
-        <v>2.325529151467606</v>
+        <v>3.561672461074551</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.630683444075203</v>
+        <v>1.956639096488985</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3122317960713161</v>
+        <v>0.5463842537754005</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.166087800250295</v>
+        <v>5.039502951199381</v>
       </c>
       <c r="C18">
-        <v>0.3581550844531876</v>
+        <v>1.252459690540832</v>
       </c>
       <c r="D18">
-        <v>0.08831040445684124</v>
+        <v>0.06104699769615962</v>
       </c>
       <c r="E18">
-        <v>0.0453278704854867</v>
+        <v>0.01896068310147747</v>
       </c>
       <c r="F18">
-        <v>2.308647812362238</v>
+        <v>3.47661249497861</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.623556315742576</v>
+        <v>1.916679504963099</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3091752771527467</v>
+        <v>0.5320886494403396</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.154962437060135</v>
+        <v>4.991959492839555</v>
       </c>
       <c r="C19">
-        <v>0.355109237383715</v>
+        <v>1.240461841309525</v>
       </c>
       <c r="D19">
-        <v>0.08831989933112538</v>
+        <v>0.06095774023086875</v>
       </c>
       <c r="E19">
-        <v>0.04533840724496141</v>
+        <v>0.01895683984237895</v>
       </c>
       <c r="F19">
-        <v>2.30295648409907</v>
+        <v>3.448025298289764</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.621158931153388</v>
+        <v>1.903269935634739</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.308143543330047</v>
+        <v>0.5272737737270035</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.205106301524779</v>
+        <v>5.206705018997241</v>
       </c>
       <c r="C20">
-        <v>0.3688202734474544</v>
+        <v>1.294666920944394</v>
       </c>
       <c r="D20">
-        <v>0.0882796506320247</v>
+        <v>0.06137640302831215</v>
       </c>
       <c r="E20">
-        <v>0.04529157078200896</v>
+        <v>0.01897564877234093</v>
       </c>
       <c r="F20">
-        <v>2.328665124218873</v>
+        <v>3.577518490663351</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.632010005528187</v>
+        <v>1.964093011132505</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3127989877993116</v>
+        <v>0.5490423902607091</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.374963034898826</v>
+        <v>5.943657365320803</v>
       </c>
       <c r="C21">
-        <v>0.41496761845832</v>
+        <v>1.480967496446056</v>
       </c>
       <c r="D21">
-        <v>0.08818815223504117</v>
+        <v>0.06310719015863953</v>
       </c>
       <c r="E21">
-        <v>0.04514435695853969</v>
+        <v>0.01906697279810565</v>
       </c>
       <c r="F21">
-        <v>2.416755148649258</v>
+        <v>4.028873490726681</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.669571627063178</v>
+        <v>2.177604551142451</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3286610696633829</v>
+        <v>0.624131214149628</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.487011137445734</v>
+        <v>6.438838462167439</v>
       </c>
       <c r="C22">
-        <v>0.4451914768026768</v>
+        <v>1.606432631852897</v>
       </c>
       <c r="D22">
-        <v>0.08816136531720531</v>
+        <v>0.06451580391671285</v>
       </c>
       <c r="E22">
-        <v>0.04505570713376894</v>
+        <v>0.01914982365129614</v>
       </c>
       <c r="F22">
-        <v>2.475621097480911</v>
+        <v>4.337908009488871</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.694952996079621</v>
+        <v>2.325006792480536</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3391936116696002</v>
+        <v>0.674896984938627</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.42711353955076</v>
+        <v>6.173170448705889</v>
       </c>
       <c r="C23">
-        <v>0.4290543171631498</v>
+        <v>1.539089014313845</v>
       </c>
       <c r="D23">
-        <v>0.08817261433283363</v>
+        <v>0.06373610053966416</v>
       </c>
       <c r="E23">
-        <v>0.04510232933776681</v>
+        <v>0.01910333034738088</v>
       </c>
       <c r="F23">
-        <v>2.444083688409336</v>
+        <v>4.171551650262529</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.681329631784152</v>
+        <v>2.245544068121674</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3335569337935453</v>
+        <v>0.6476310745817386</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.202347468076084</v>
+        <v>5.194858918472733</v>
       </c>
       <c r="C24">
-        <v>0.3680670378622608</v>
+        <v>1.291675900861378</v>
       </c>
       <c r="D24">
-        <v>0.0882816974406424</v>
+        <v>0.06135227611277116</v>
       </c>
       <c r="E24">
-        <v>0.0452941046251345</v>
+        <v>0.0189745151643228</v>
       </c>
       <c r="F24">
-        <v>2.327246930746355</v>
+        <v>3.570350611130209</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.631409990902043</v>
+        <v>1.960720892532677</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.312542507475186</v>
+        <v>0.5478401877543178</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.964299393444946</v>
+        <v>4.185244167622614</v>
       </c>
       <c r="C25">
-        <v>0.3025296680355325</v>
+        <v>1.037089416471019</v>
       </c>
       <c r="D25">
-        <v>0.08853838897886135</v>
+        <v>0.05975323675760791</v>
       </c>
       <c r="E25">
-        <v>0.04553345119753471</v>
+        <v>0.01892161188684893</v>
       </c>
       <c r="F25">
-        <v>2.206660695328992</v>
+        <v>2.970409329584982</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.581072248608024</v>
+        <v>1.680876654215282</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2905771658949305</v>
+        <v>0.4459976710426474</v>
       </c>
       <c r="M25">
         <v>0</v>
